--- a/data_output/prism_passive/all_passive_Stiffness at trial ROM (Nmperdeg).xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at trial ROM (Nmperdeg).xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.8011145163567885</v>
+        <v>1.8011145213487323</v>
       </c>
       <c r="C2">
-        <v>2.9378653641040038</v>
+        <v>2.9378652811295058</v>
       </c>
       <c r="D2">
-        <v>10.985344076488435</v>
+        <v>10.985344129018818</v>
       </c>
       <c r="E2">
-        <v>-11.228546430174246</v>
+        <v>-11.228546218145532</v>
       </c>
       <c r="F2">
-        <v>2.2185162164004111</v>
+        <v>2.2185161819459029</v>
       </c>
       <c r="G2">
-        <v>1.9621568845960824</v>
+        <v>1.9621568294523937</v>
       </c>
       <c r="H2">
-        <v>4.2734037946302426</v>
+        <v>4.273403769953994</v>
       </c>
       <c r="I2">
-        <v>1.5180660113332394</v>
+        <v>1.5180660469680884</v>
       </c>
       <c r="J2">
-        <v>3.1090688361395182</v>
+        <v>3.1090688073751096</v>
       </c>
       <c r="K2">
-        <v>1.6799583091656412</v>
+        <v>1.6799582439436629</v>
       </c>
       <c r="L2">
-        <v>2.5936231429063441</v>
+        <v>2.5936230793376964</v>
       </c>
       <c r="M2">
-        <v>2.7195085657365832</v>
+        <v>2.7195085121650875</v>
       </c>
       <c r="N2">
-        <v>3.4101660209681319</v>
+        <v>3.4101659978485714</v>
       </c>
       <c r="O2">
-        <v>-1.521600630436281</v>
+        <v>-1.5216007730484891</v>
       </c>
       <c r="P2">
-        <v>4.927274969380786</v>
+        <v>4.9272748958613892</v>
       </c>
       <c r="Q2">
-        <v>0.79737768131578513</v>
+        <v>0.79737767025288842</v>
       </c>
       <c r="R2">
-        <v>1.7440113330352531</v>
+        <v>1.7440113129561112</v>
       </c>
       <c r="S2">
-        <v>0.41652061509134741</v>
+        <v>0.4165204884822522</v>
       </c>
       <c r="T2">
-        <v>0.86426548119373214</v>
+        <v>0.86426545422287249</v>
       </c>
       <c r="U2">
-        <v>2.6460866603384559</v>
+        <v>2.6460866184097842</v>
       </c>
       <c r="V2">
-        <v>25.326085341422495</v>
+        <v>25.32608477190233</v>
       </c>
       <c r="W2">
-        <v>3.1614793492647832</v>
+        <v>3.1614793420212686</v>
       </c>
       <c r="X2">
-        <v>6.0095877644757021</v>
+        <v>6.0095875549793485</v>
       </c>
       <c r="Y2">
-        <v>1.7206786857345162</v>
+        <v>1.7206786439792743</v>
       </c>
       <c r="Z2">
-        <v>0.41852611279688556</v>
+        <v>0.41852610724384937</v>
       </c>
       <c r="AA2">
-        <v>2.1288465947744362</v>
+        <v>2.128846465371768</v>
       </c>
       <c r="AB2">
-        <v>3.4076465118177368</v>
+        <v>3.4076463796646328</v>
       </c>
       <c r="AC2">
-        <v>6.7725854326282322</v>
+        <v>6.772585300826627</v>
       </c>
       <c r="AD2">
-        <v>-1.3803451924268022</v>
+        <v>-1.3803455199239492</v>
       </c>
       <c r="AE2">
-        <v>-6.0423158482143853</v>
+        <v>-6.0423157405434473</v>
       </c>
       <c r="AF2">
-        <v>2.9067368578868811</v>
+        <v>2.9067368288307303</v>
       </c>
       <c r="AG2">
-        <v>7.4603095165634281</v>
+        <v>7.4603091363410492</v>
       </c>
       <c r="AH2">
-        <v>3.508328552404941</v>
+        <v>3.5083284646243325</v>
       </c>
       <c r="AI2">
-        <v>3.5402891990940555</v>
+        <v>3.5402891619459527</v>
       </c>
       <c r="AJ2">
-        <v>0.80369032624366299</v>
+        <v>0.80369035061730165</v>
       </c>
       <c r="AK2">
-        <v>2.5496790532462601</v>
+        <v>2.5496790171762695</v>
       </c>
       <c r="AL2">
-        <v>3.8683044643868336</v>
+        <v>3.868304607751841</v>
       </c>
       <c r="AM2">
-        <v>2.6582505755464472</v>
+        <v>2.6582505164153236</v>
       </c>
       <c r="AN2">
-        <v>-9.5138433021272895E-3</v>
+        <v>-9.5138169129177497E-3</v>
       </c>
       <c r="AO2">
-        <v>2.8657452862533983</v>
+        <v>2.8657452062026394</v>
       </c>
       <c r="AP2">
-        <v>0.73966680637382565</v>
+        <v>0.73966680880394176</v>
       </c>
       <c r="AQ2">
-        <v>-3.6005078294626003</v>
+        <v>-3.6005076459429786</v>
       </c>
       <c r="AR2">
-        <v>5.0657415263381687</v>
+        <v>5.0657414751422927</v>
       </c>
       <c r="AS2">
-        <v>40.110494489943939</v>
+        <v>40.110495885224886</v>
       </c>
       <c r="AT2">
-        <v>1.1907821785000094</v>
+        <v>1.190782172038195</v>
       </c>
       <c r="AU2">
-        <v>9.7992096555264148</v>
+        <v>9.7992093143552523</v>
       </c>
       <c r="AV2">
-        <v>2.6269959177178555</v>
+        <v>2.6269955072002831</v>
       </c>
       <c r="AW2">
-        <v>0.92695205553249127</v>
+        <v>0.92695200852381265</v>
       </c>
       <c r="AX2">
-        <v>3.8332074368948992</v>
+        <v>3.8332077767864821</v>
       </c>
       <c r="AY2">
-        <v>0.37488171910715157</v>
+        <v>0.37488154423840986</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.6608627567978962</v>
+        <v>3.6608626327832647</v>
       </c>
       <c r="C3">
-        <v>2.1248948378131303</v>
+        <v>2.1248946931614849</v>
       </c>
       <c r="D3">
-        <v>1.5668455821892184</v>
+        <v>1.566845579697248</v>
       </c>
       <c r="E3">
-        <v>3.5849219320681129</v>
+        <v>3.5849219191616037</v>
       </c>
       <c r="F3">
-        <v>1.3983946995949372</v>
+        <v>1.3983946445694324</v>
       </c>
       <c r="G3">
-        <v>2.3958213043950556</v>
+        <v>2.3958213132520889</v>
       </c>
       <c r="H3">
-        <v>3.9422131333933024</v>
+        <v>3.9422130848253345</v>
       </c>
       <c r="I3">
-        <v>0.86693877862233848</v>
+        <v>0.86693876436178785</v>
       </c>
       <c r="J3">
-        <v>2.9115407257648043</v>
+        <v>2.9115407116094576</v>
       </c>
       <c r="K3">
-        <v>1.8371526567974548</v>
+        <v>1.8371526445148127</v>
       </c>
       <c r="L3">
-        <v>2.1434933477452836</v>
+        <v>2.1434933235245106</v>
       </c>
       <c r="M3">
-        <v>4.2870507235635111</v>
+        <v>4.288109452376121</v>
       </c>
       <c r="N3">
-        <v>2.1199251681721707</v>
+        <v>2.1199251419547886</v>
       </c>
       <c r="O3">
-        <v>0.791072099495161</v>
+        <v>0.79107209790660904</v>
       </c>
       <c r="P3">
-        <v>6.0228862400474688</v>
+        <v>6.0228860954389605</v>
       </c>
       <c r="Q3">
-        <v>1.5223635358065304</v>
+        <v>1.5223635283051786</v>
       </c>
       <c r="R3">
-        <v>1.4687934359439376</v>
+        <v>1.4687936532380808</v>
       </c>
       <c r="S3">
-        <v>3.077327874116484</v>
+        <v>3.0773278438167972</v>
       </c>
       <c r="T3">
-        <v>1.5235725504474675</v>
+        <v>1.5235725588521145</v>
       </c>
       <c r="U3">
-        <v>1.4673571351260626</v>
+        <v>1.4673571292198697</v>
       </c>
       <c r="V3">
-        <v>3.5157224130373055</v>
+        <v>3.5157224014624955</v>
       </c>
       <c r="W3">
-        <v>1.7862119434062067</v>
+        <v>1.7862119395919995</v>
       </c>
       <c r="X3">
-        <v>1.9808726771518703</v>
+        <v>1.9808726340668774</v>
       </c>
       <c r="Y3">
-        <v>1.2901268906870267</v>
+        <v>1.2901268842016218</v>
       </c>
       <c r="Z3">
-        <v>0.61485827509252011</v>
+        <v>0.61485826813556543</v>
       </c>
       <c r="AA3">
-        <v>4.9984375072962477</v>
+        <v>4.9984373821430674</v>
       </c>
       <c r="AB3">
-        <v>2.6539534165955163</v>
+        <v>2.6539531700867518</v>
       </c>
       <c r="AC3">
-        <v>0.52147493843614379</v>
+        <v>0.52147458217419929</v>
       </c>
       <c r="AD3">
-        <v>6.6270924516007792</v>
+        <v>6.6270920257557906</v>
       </c>
       <c r="AE3">
-        <v>4.6156449185402977</v>
+        <v>4.6156447763714672</v>
       </c>
       <c r="AF3">
-        <v>2.394197222052405</v>
+        <v>2.3941972622538672</v>
       </c>
       <c r="AG3">
-        <v>1.9738188703627957</v>
+        <v>1.9738187485866372</v>
       </c>
       <c r="AH3">
-        <v>-6.1406271523101745</v>
+        <v>-6.1406265160424702</v>
       </c>
       <c r="AI3">
-        <v>-0.10478528115812613</v>
+        <v>-0.10478514771983305</v>
       </c>
       <c r="AJ3">
-        <v>-3.2957762809939766</v>
+        <v>-3.2957760326243899</v>
       </c>
       <c r="AK3">
-        <v>0.75848496962224099</v>
+        <v>0.7584850493094204</v>
       </c>
       <c r="AL3">
-        <v>6.4259447490858452</v>
+        <v>6.4259446946875078</v>
       </c>
       <c r="AM3">
-        <v>4.5633182366321758</v>
+        <v>4.5633181446064794</v>
       </c>
       <c r="AN3">
-        <v>-3.2240245167453696</v>
+        <v>-3.2240245114077286</v>
       </c>
       <c r="AO3">
-        <v>7.7183562015729636</v>
+        <v>7.7183560705830372</v>
       </c>
       <c r="AP3">
-        <v>0.84707075429941514</v>
+        <v>0.84707073962477897</v>
       </c>
       <c r="AQ3">
-        <v>0.26296516168994832</v>
+        <v>0.26296523880157807</v>
       </c>
       <c r="AR3">
-        <v>1.6945682793031747</v>
+        <v>1.6945682693489275</v>
       </c>
       <c r="AS3">
-        <v>23.02030330400676</v>
+        <v>23.020302186786992</v>
       </c>
       <c r="AT3">
-        <v>2.7022101793572881</v>
+        <v>2.7022101516643615</v>
       </c>
       <c r="AU3">
-        <v>-23.917672202855933</v>
+        <v>-23.917668546113632</v>
       </c>
       <c r="AV3">
-        <v>5.7933430031999285</v>
+        <v>5.7933423632748804</v>
       </c>
       <c r="AW3">
-        <v>-7.9266236051537193</v>
+        <v>-7.9266240828463967</v>
       </c>
       <c r="AX3">
-        <v>1.0572858714374667</v>
+        <v>1.0572860328888714</v>
       </c>
       <c r="AY3">
-        <v>3.9792531411204801</v>
+        <v>3.9792531782448837</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_Stiffness at trial ROM (Nmperdeg).xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at trial ROM (Nmperdeg).xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>1.8011145213487323</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.9378652811295058</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>10.985344129018818</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-11.228546218145532</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2.2185161819459029</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.9621568294523937</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>4.273403769953994</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.5180660469680884</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3.1090688073751096</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.6799582439436629</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2.5936230793376964</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>2.7195085121650875</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>3.4101659978485714</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-1.5216007730484891</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>4.9272748958613892</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.79737767025288842</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.7440113129561112</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0.4165204884822522</v>
@@ -588,55 +477,55 @@
         <v>0.41852610724384937</v>
       </c>
       <c r="AA2">
-        <v>2.128846465371768</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>3.4076463796646328</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>6.772585300826627</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>-1.3803455199239492</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-6.0423157405434473</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.9067368288307303</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>7.4603091363410492</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>3.5083284646243325</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>3.5402891619459527</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.80369035061730165</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>2.5496790171762695</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>3.868304607751841</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>2.6582505164153236</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>-9.5138169129177497E-3</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>2.8657452062026394</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.73966680880394176</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-3.6005076459429786</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>5.0657414751422927</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>3.6608626327832647</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2.1248946931614849</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.566845579697248</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3.5849219191616037</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.3983946445694324</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2.3958213132520889</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.9422130848253345</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.86693876436178785</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2.9115407116094576</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.8371526445148127</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2.1434933235245106</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>4.288109452376121</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.1199251419547886</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.79107209790660904</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>6.0228860954389605</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.5223635283051786</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.4687936532380808</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>3.0773278438167972</v>
@@ -743,55 +629,55 @@
         <v>0.61485826813556543</v>
       </c>
       <c r="AA3">
-        <v>4.9984373821430674</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>2.6539531700867518</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.52147458217419929</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>6.6270920257557906</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>4.6156447763714672</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.3941972622538672</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.9738187485866372</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>-6.1406265160424702</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>-0.10478514771983305</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-3.2957760326243899</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.7584850493094204</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>6.4259446946875078</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>4.5633181446064794</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-3.2240245114077286</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>7.7183560705830372</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.84707073962477897</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.26296523880157807</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>1.6945682693489275</v>

--- a/data_output/prism_passive/all_passive_Stiffness at trial ROM (Nmperdeg).xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at trial ROM (Nmperdeg).xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.130723067068109</v>
+        <v>0.42801434716386477</v>
       </c>
       <c r="C2">
-        <v>3.1947205224515995</v>
+        <v>2.0273389758469595</v>
       </c>
       <c r="D2">
-        <v>1.8245385555549281</v>
+        <v>0.38689077983612485</v>
       </c>
       <c r="E2">
-        <v>6.2821794022308151</v>
+        <v>1.3939160069157488</v>
       </c>
       <c r="F2">
         <v>2.5181816586384524</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.0898347331636469</v>
+        <v>0.91898135611724596</v>
       </c>
       <c r="C3">
-        <v>2.7851856097098326</v>
+        <v>2.6799012164395939</v>
       </c>
       <c r="D3">
-        <v>1.7540717649294792</v>
+        <v>1.1116130973260185</v>
       </c>
       <c r="E3">
-        <v>4.2077608245758995</v>
+        <v>1.0633454225808727</v>
       </c>
       <c r="F3">
         <v>1.4412269357359346</v>

--- a/data_output/prism_passive/all_passive_Stiffness at trial ROM (Nmperdeg).xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at trial ROM (Nmperdeg).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.130723067068109</v>
+        <v>2.9921861609128104</v>
       </c>
       <c r="C2">
-        <v>3.1947205224515995</v>
+        <v>0.42801434716386477</v>
       </c>
       <c r="D2">
-        <v>1.8245385555549281</v>
+        <v>3.018134905795482</v>
       </c>
       <c r="E2">
-        <v>6.2821794022308151</v>
+        <v>0.38689077983612485</v>
       </c>
       <c r="F2">
         <v>2.5181816586384524</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.0898347331636469</v>
+        <v>2.4520921249786043</v>
       </c>
       <c r="C3">
-        <v>2.7851856097098326</v>
+        <v>0.91898135611724596</v>
       </c>
       <c r="D3">
-        <v>1.7540717649294792</v>
+        <v>6.2121606916272807</v>
       </c>
       <c r="E3">
-        <v>4.2077608245758995</v>
+        <v>1.1116130973260185</v>
       </c>
       <c r="F3">
         <v>1.4412269357359346</v>

--- a/data_output/prism_passive/all_passive_Stiffness at trial ROM (Nmperdeg).xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at trial ROM (Nmperdeg).xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>2.1307230644734441</v>
+      </c>
+      <c r="C2">
+        <v>3.1947204429497695</v>
+      </c>
+      <c r="D2">
+        <v>1.8245385450232541</v>
+      </c>
+      <c r="E2">
+        <v>6.2821791044838653</v>
+      </c>
+      <c r="F2">
+        <v>2.5181816205994849</v>
+      </c>
+      <c r="G2">
+        <v>2.2580713559331675</v>
+      </c>
+      <c r="H2">
+        <v>4.0564184962281473</v>
+      </c>
+      <c r="I2">
+        <v>2.0455668214110254</v>
+      </c>
+      <c r="J2">
+        <v>3.1876179549893378</v>
+      </c>
+      <c r="K2">
+        <v>3.3592759512988648</v>
+      </c>
+      <c r="L2">
+        <v>2.7154451933416333</v>
+      </c>
+      <c r="M2">
+        <v>2.9896247896994677</v>
+      </c>
+      <c r="N2">
         <v>2.9921861609128104</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>0.42801434716386477</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>5.4109906254108893</v>
+      </c>
+      <c r="Q2">
+        <v>1.2037735588950391</v>
+      </c>
+      <c r="R2">
+        <v>2.0273389758469595</v>
+      </c>
+      <c r="S2">
+        <v>5.6472170405992301</v>
+      </c>
+      <c r="T2">
+        <v>1.0855768978607847</v>
+      </c>
+      <c r="U2">
+        <v>2.6095109108434236</v>
+      </c>
+      <c r="V2">
+        <v>2.5765703549294012</v>
+      </c>
+      <c r="W2">
+        <v>1.8564391266371545</v>
+      </c>
+      <c r="X2">
+        <v>3.8042436450521384</v>
+      </c>
+      <c r="Y2">
+        <v>1.7557302080766104</v>
+      </c>
+      <c r="Z2">
+        <v>0.49078514682742658</v>
+      </c>
+      <c r="AA2">
+        <v>4.8543046798893847</v>
+      </c>
+      <c r="AB2">
+        <v>3.2750697389258332</v>
+      </c>
+      <c r="AC2">
+        <v>1.2493533284878429</v>
+      </c>
+      <c r="AD2">
+        <v>5.4324082949299273</v>
+      </c>
+      <c r="AE2">
+        <v>2.967930392898511</v>
+      </c>
+      <c r="AF2">
+        <v>3.2815444436455086</v>
+      </c>
+      <c r="AG2">
+        <v>4.0575057964000996</v>
+      </c>
+      <c r="AH2">
+        <v>2.1713495028844876</v>
+      </c>
+      <c r="AI2">
+        <v>2.8369017274269366</v>
+      </c>
+      <c r="AJ2">
+        <v>3.1646889309234219</v>
+      </c>
+      <c r="AK2">
+        <v>2.9934824800267927</v>
+      </c>
+      <c r="AL2">
+        <v>2.5831305321787554</v>
+      </c>
+      <c r="AM2">
         <v>3.018134905795482</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>0.38689077983612485</v>
       </c>
-      <c r="F2">
-        <v>2.5181816586384524</v>
-      </c>
-      <c r="G2">
-        <v>2.2580714027462672</v>
-      </c>
-      <c r="H2">
-        <v>4.0564185140553306</v>
-      </c>
-      <c r="I2">
-        <v>2.0455668235635778</v>
-      </c>
-      <c r="J2">
-        <v>3.1876179673428529</v>
-      </c>
-      <c r="K2">
-        <v>3.3592760186872805</v>
-      </c>
-      <c r="L2">
-        <v>2.7154452213428977</v>
-      </c>
-      <c r="M2">
-        <v>2.9896248459763131</v>
-      </c>
-      <c r="N2">
-        <v>2.9921861693226877</v>
-      </c>
-      <c r="O2">
-        <v>0.42801433977207448</v>
-      </c>
-      <c r="P2">
-        <v>5.4109907060924201</v>
-      </c>
-      <c r="Q2">
-        <v>1.203773584064606</v>
-      </c>
-      <c r="R2">
-        <v>2.027338996450887</v>
-      </c>
-      <c r="S2">
-        <v>5.647217154802437</v>
-      </c>
-      <c r="T2">
-        <v>1.0855769257357668</v>
-      </c>
-      <c r="U2">
-        <v>2.6095109606276252</v>
-      </c>
-      <c r="V2">
-        <v>2.5765703972083833</v>
-      </c>
-      <c r="W2">
-        <v>1.8564391136157297</v>
-      </c>
-      <c r="X2">
-        <v>3.8042437073643338</v>
-      </c>
-      <c r="Y2">
-        <v>1.7557302301913307</v>
-      </c>
-      <c r="Z2">
-        <v>0.49078515241315068</v>
-      </c>
-      <c r="AA2">
-        <v>4.8543048377150742</v>
-      </c>
-      <c r="AB2">
-        <v>3.2750698227801047</v>
-      </c>
-      <c r="AC2">
-        <v>1.2493533198285838</v>
-      </c>
-      <c r="AD2">
-        <v>5.4324085760274627</v>
-      </c>
-      <c r="AE2">
-        <v>2.9679304753999034</v>
-      </c>
-      <c r="AF2">
-        <v>3.2815444758098695</v>
-      </c>
-      <c r="AG2">
-        <v>4.0575058321673945</v>
-      </c>
-      <c r="AH2">
-        <v>2.1713495168087329</v>
-      </c>
-      <c r="AI2">
-        <v>2.8369017439860356</v>
-      </c>
-      <c r="AJ2">
-        <v>3.1646890170732789</v>
-      </c>
-      <c r="AK2">
-        <v>2.9934825625812618</v>
-      </c>
-      <c r="AL2">
-        <v>2.5831305638916664</v>
-      </c>
-      <c r="AM2">
-        <v>3.0181349525973502</v>
-      </c>
-      <c r="AN2">
-        <v>0.38689077968843033</v>
-      </c>
       <c r="AO2">
-        <v>2.3871889788688394</v>
+        <v>2.3871889465310758</v>
       </c>
       <c r="AP2">
-        <v>1.0876412879855806</v>
+        <v>1.0876412891131375</v>
       </c>
       <c r="AQ2">
-        <v>1.3939160256731884</v>
+        <v>1.3939160069157488</v>
       </c>
       <c r="AR2">
-        <v>4.5289286859787179</v>
+        <v>4.5289286253901739</v>
       </c>
       <c r="AS2">
-        <v>3.4287715604754112</v>
+        <v>3.4287715368234846</v>
       </c>
       <c r="AT2">
-        <v>0.62298921368274729</v>
+        <v>0.62298920530556601</v>
       </c>
       <c r="AU2">
-        <v>2.0785552622904833</v>
+        <v>2.0785552572007848</v>
       </c>
       <c r="AV2">
-        <v>3.5969866526354122</v>
+        <v>3.5969865164656354</v>
       </c>
       <c r="AW2">
-        <v>1.4450739907429331</v>
+        <v>1.4450739660431133</v>
       </c>
       <c r="AX2">
-        <v>2.1626556684325315</v>
+        <v>2.1626556322278119</v>
       </c>
       <c r="AY2">
-        <v>1.529663379549802</v>
+        <v>1.5296633544173353</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>4.0898345934106839</v>
+      </c>
+      <c r="C3">
+        <v>2.7851855369577949</v>
+      </c>
+      <c r="D3">
+        <v>1.7540717614754011</v>
+      </c>
+      <c r="E3">
+        <v>4.2077608276484142</v>
+      </c>
+      <c r="F3">
+        <v>1.4412269040916452</v>
+      </c>
+      <c r="G3">
+        <v>2.5906775362757264</v>
+      </c>
+      <c r="H3">
+        <v>4.4691075869385744</v>
+      </c>
+      <c r="I3">
+        <v>1.0550038518075289</v>
+      </c>
+      <c r="J3">
+        <v>3.1469823679139299</v>
+      </c>
+      <c r="K3">
+        <v>2.145794655253177</v>
+      </c>
+      <c r="L3">
+        <v>2.4981755539930726</v>
+      </c>
+      <c r="M3">
+        <v>3.9854629544917639</v>
+      </c>
+      <c r="N3">
         <v>2.4520921249786043</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>0.91898135611724596</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>6.0561664629235317</v>
+      </c>
+      <c r="Q3">
+        <v>1.5545701196312423</v>
+      </c>
+      <c r="R3">
+        <v>2.6799012164395939</v>
+      </c>
+      <c r="S3">
+        <v>3.3939350928022498</v>
+      </c>
+      <c r="T3">
+        <v>1.4934246376341327</v>
+      </c>
+      <c r="U3">
+        <v>1.6296269699770678</v>
+      </c>
+      <c r="V3">
+        <v>3.8167295126247702</v>
+      </c>
+      <c r="W3">
+        <v>1.8997110505542674</v>
+      </c>
+      <c r="X3">
+        <v>2.1763492217388865</v>
+      </c>
+      <c r="Y3">
+        <v>1.4686671970077305</v>
+      </c>
+      <c r="Z3">
+        <v>0.68036242150931314</v>
+      </c>
+      <c r="AA3">
+        <v>4.6216739163270937</v>
+      </c>
+      <c r="AB3">
+        <v>4.0138191170314883</v>
+      </c>
+      <c r="AC3">
+        <v>1.0904634635847943</v>
+      </c>
+      <c r="AD3">
+        <v>3.4228925979944949</v>
+      </c>
+      <c r="AE3">
+        <v>1.5447871853619839</v>
+      </c>
+      <c r="AF3">
+        <v>2.9851252279480889</v>
+      </c>
+      <c r="AG3">
+        <v>4.1512335676157486</v>
+      </c>
+      <c r="AH3">
+        <v>6.8001118986787343</v>
+      </c>
+      <c r="AI3">
+        <v>2.9078067303745225</v>
+      </c>
+      <c r="AJ3">
+        <v>1.8492205485132533</v>
+      </c>
+      <c r="AK3">
+        <v>3.3145041986430916</v>
+      </c>
+      <c r="AL3">
+        <v>4.0135459956218327</v>
+      </c>
+      <c r="AM3">
         <v>6.2121606916272807</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>1.1116130973260185</v>
       </c>
-      <c r="F3">
-        <v>1.4412269357359346</v>
-      </c>
-      <c r="G3">
-        <v>2.5906775538343689</v>
-      </c>
-      <c r="H3">
-        <v>4.4691076415972431</v>
-      </c>
-      <c r="I3">
-        <v>1.0550038678343707</v>
-      </c>
-      <c r="J3">
-        <v>3.146982378227051</v>
-      </c>
-      <c r="K3">
-        <v>2.145794670360345</v>
-      </c>
-      <c r="L3">
-        <v>2.4981755821981206</v>
-      </c>
-      <c r="M3">
-        <v>3.9852848518723705</v>
-      </c>
-      <c r="N3">
-        <v>2.4520921537329738</v>
-      </c>
-      <c r="O3">
-        <v>0.91898135772866629</v>
-      </c>
-      <c r="P3">
-        <v>6.0561665541686285</v>
-      </c>
-      <c r="Q3">
-        <v>1.5545701220995509</v>
-      </c>
-      <c r="R3">
-        <v>2.6799012546799501</v>
-      </c>
-      <c r="S3">
-        <v>3.3939351235530819</v>
-      </c>
-      <c r="T3">
-        <v>1.4934246494213361</v>
-      </c>
-      <c r="U3">
-        <v>1.6296269771103935</v>
-      </c>
-      <c r="V3">
-        <v>3.8167295241887613</v>
-      </c>
-      <c r="W3">
-        <v>1.8997110607749419</v>
-      </c>
-      <c r="X3">
-        <v>2.1763492685756685</v>
-      </c>
-      <c r="Y3">
-        <v>1.468667204413495</v>
-      </c>
-      <c r="Z3">
-        <v>0.68036242738791786</v>
-      </c>
-      <c r="AA3">
-        <v>4.6216740270814416</v>
-      </c>
-      <c r="AB3">
-        <v>4.0138191925586382</v>
-      </c>
-      <c r="AC3">
-        <v>1.090463452475205</v>
-      </c>
-      <c r="AD3">
-        <v>3.4228926806265338</v>
-      </c>
-      <c r="AE3">
-        <v>1.5447871664612514</v>
-      </c>
-      <c r="AF3">
-        <v>2.9851252138345665</v>
-      </c>
-      <c r="AG3">
-        <v>4.1512336631417641</v>
-      </c>
-      <c r="AH3">
-        <v>6.8001122169849273</v>
-      </c>
-      <c r="AI3">
-        <v>2.9078068358243532</v>
-      </c>
-      <c r="AJ3">
-        <v>1.8492205272160687</v>
-      </c>
-      <c r="AK3">
-        <v>3.314504242609253</v>
-      </c>
-      <c r="AL3">
-        <v>4.013546023337736</v>
-      </c>
-      <c r="AM3">
-        <v>6.2121608622434694</v>
-      </c>
-      <c r="AN3">
-        <v>1.1116131104526166</v>
-      </c>
       <c r="AO3">
-        <v>6.198671778980132</v>
+        <v>6.1986717216060754</v>
       </c>
       <c r="AP3">
-        <v>0.94072164141635195</v>
+        <v>0.94072164310476691</v>
       </c>
       <c r="AQ3">
-        <v>1.0633454312764394</v>
+        <v>1.0633454225808727</v>
       </c>
       <c r="AR3">
-        <v>1.9607393175949241</v>
+        <v>1.9607392963695118</v>
       </c>
       <c r="AS3">
-        <v>3.4454361158597178</v>
+        <v>3.4454360473612562</v>
       </c>
       <c r="AT3">
-        <v>0.6788863161250801</v>
+        <v>0.67888631844656389</v>
       </c>
       <c r="AU3">
-        <v>3.0745575943427008</v>
+        <v>3.0745575465575095</v>
       </c>
       <c r="AV3">
-        <v>3.3192844569401871</v>
+        <v>3.3192844228112763</v>
       </c>
       <c r="AW3">
-        <v>3.9135819562547445</v>
+        <v>3.9135818115869689</v>
       </c>
       <c r="AX3">
-        <v>1.742548384781673</v>
+        <v>1.7425483712271539</v>
       </c>
       <c r="AY3">
-        <v>2.0825230326640538</v>
+        <v>2.0825230322311379</v>
       </c>
     </row>
   </sheetData>
